--- a/Model Pipeline/hyperparameter_tuning/best_model/Evaluation 191024.xlsx
+++ b/Model Pipeline/hyperparameter_tuning/best_model/Evaluation 191024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\limyi\Documents\GitHub\DSE4212\Model Pipeline\hyperparameter_tuning_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\limyi\Documents\GitHub\DSE4212\Model Pipeline\hyperparameter_tuning\best_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF84BE6-B9CB-4688-A2B1-5456C9975595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465902D1-044D-4865-BBF0-08587E5FE850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{E70AA270-E9C1-4844-BB73-78EA2F9D687C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E70AA270-E9C1-4844-BB73-78EA2F9D687C}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -129,9 +129,6 @@
     <t>[3,4,5]</t>
   </si>
   <si>
-    <t>[5,10]</t>
-  </si>
-  <si>
     <t>[5,10,20]</t>
   </si>
   <si>
@@ -162,12 +159,15 @@
   <si>
     <t>Normalized Max Drawdown</t>
   </si>
+  <si>
+    <t>[0.01,0.02]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,7 +212,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -349,11 +349,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -394,16 +431,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -412,10 +453,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -750,18 +796,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE6063C-627E-403F-B502-7B050E1841AF}">
-  <dimension ref="B2:H40"/>
+  <dimension ref="B2:H39"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10:AK11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="25.42578125" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="40" customWidth="1"/>
+    <col min="5" max="5" width="52.7109375" customWidth="1"/>
     <col min="6" max="6" width="29.28515625" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -777,19 +823,19 @@
     <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" ht="21">
       <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" ht="12" customHeight="1" thickBot="1">
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="2:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="20" t="s">
+    <row r="4" spans="2:8" ht="45.75" thickBot="1">
+      <c r="B4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="10" t="s">
         <v>8</v>
       </c>
@@ -800,11 +846,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
+    <row r="5" spans="2:8" ht="75">
+      <c r="B5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="12" t="s">
         <v>15</v>
       </c>
@@ -815,7 +861,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8">
       <c r="B6" s="18" t="s">
         <v>7</v>
       </c>
@@ -830,10 +876,10 @@
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
       <c r="B7" s="18" t="s">
         <v>0</v>
       </c>
@@ -848,10 +894,10 @@
         <v>50</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
       <c r="B8" s="18" t="s">
         <v>1</v>
       </c>
@@ -863,13 +909,13 @@
         <v>4</v>
       </c>
       <c r="F8" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8">
       <c r="B9" s="18" t="s">
         <v>2</v>
       </c>
@@ -887,7 +933,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8">
       <c r="B10" s="18" t="s">
         <v>3</v>
       </c>
@@ -899,31 +945,34 @@
         <v>20</v>
       </c>
       <c r="F10" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="H11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="30" customHeight="1">
+      <c r="B12" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="14">
-        <v>938236.75</v>
-      </c>
-      <c r="E11" s="2">
-        <v>787541.3</v>
-      </c>
-      <c r="F11" s="7">
-        <v>353500.12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="18"/>
       <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
@@ -934,11 +983,11 @@
         <v>-0.43661943903449502</v>
       </c>
       <c r="F12" s="7">
-        <v>-0.30239757206990098</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="18"/>
+        <v>-0.359892606545474</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="25"/>
       <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
@@ -949,11 +998,11 @@
         <v>0.90674316448995895</v>
       </c>
       <c r="F13" s="7">
-        <v>0.79389600673147198</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="18"/>
+        <v>1.0235823552994101</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="26"/>
       <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,236 +1013,222 @@
         <v>7.8754131249999997</v>
       </c>
       <c r="F14" s="7">
-        <v>3.5350012500000001</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="22" t="s">
-        <v>33</v>
+        <v>10.7822525</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D15" s="14">
-        <v>225394.63</v>
+        <v>-0.17713575385536001</v>
       </c>
       <c r="E15" s="2">
-        <v>225676.06</v>
+        <v>-0.11005857555294001</v>
       </c>
       <c r="F15" s="7">
-        <v>226006.32</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="18"/>
+        <v>-0.140312082930313</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="25"/>
       <c r="C16" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" s="14">
-        <v>-0.17713575385536001</v>
+        <v>1.1575589742311001</v>
       </c>
       <c r="E16" s="2">
-        <v>-0.11005857555294001</v>
+        <v>1.4617713185882399</v>
       </c>
       <c r="F16" s="7">
-        <v>-0.10150000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="18"/>
+        <v>1.8335316754700499</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="26"/>
       <c r="C17" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17" s="14">
-        <v>1.1575589742311001</v>
+        <v>1.1843999999999999</v>
       </c>
       <c r="E17" s="2">
-        <v>1.4617713185882399</v>
+        <v>1.25</v>
       </c>
       <c r="F17" s="7">
-        <v>1.4854195366295948</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="18"/>
-      <c r="C18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="14">
-        <v>1.1843999999999999</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="F18" s="7">
-        <v>1.2615775806707765</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B24" s="3" t="s">
+        <v>2.3595326562499999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="21">
+      <c r="B23" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B26" s="16" t="s">
+    <row r="24" spans="2:6" ht="15.75" thickBot="1"/>
+    <row r="25" spans="2:6" ht="45">
+      <c r="B25" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="4" t="s">
+      <c r="C25" s="21"/>
+      <c r="D25" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" ht="90.75" customHeight="1">
+      <c r="B26" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
       <c r="B27" s="18" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C27" s="19"/>
-      <c r="D27" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D27" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
       <c r="B28" s="18" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C28" s="19"/>
-      <c r="D28" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D28" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
       <c r="B29" s="18" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
       <c r="B30" s="18" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6">
       <c r="B31" s="18" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="22" t="s">
+    <row r="32" spans="2:6">
+      <c r="B32" s="17" t="s">
         <v>19</v>
       </c>
+      <c r="C32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1643233.6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="18"/>
       <c r="C33" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D33" s="7">
-        <v>1643233.6</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+        <v>-0.38511536015811498</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
       <c r="B34" s="18"/>
       <c r="C34" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" s="7">
-        <v>-0.38511536015811498</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+        <v>1.2261634240827699</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
       <c r="B35" s="18"/>
       <c r="C35" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D35" s="7">
-        <v>1.2261634240827699</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="18"/>
+        <v>16.432336249999999</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="C36" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D36" s="7">
-        <v>16.432336249999999</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="22" t="s">
-        <v>20</v>
-      </c>
+        <v>150954.56</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="18"/>
       <c r="C37" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D37" s="7">
-        <v>150954.56</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+        <v>-0.227745188074087</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
       <c r="B38" s="18"/>
       <c r="C38" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" s="7">
-        <v>-0.227745188074087</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+        <v>1.41952148536356</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
       <c r="B39" s="18"/>
       <c r="C39" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D39" s="7">
-        <v>1.41952148536356</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="18"/>
-      <c r="C40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="7">
         <v>1.5095456249999999</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:B36"/>
+  <mergeCells count="19">
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B15:B18"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
     <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:B35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1204,11 +1239,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41419A1-C8E4-448B-84F6-E20DE8CC9A64}">
   <dimension ref="A1:Q163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="F3:M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
@@ -1220,7 +1255,7 @@
     <col min="16" max="16" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="9" customFormat="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1234,7 +1269,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
         <v>21</v>
@@ -1249,16 +1284,16 @@
         <v>24</v>
       </c>
       <c r="J1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s">
         <v>35</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>36</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>37</v>
-      </c>
-      <c r="M1" t="s">
-        <v>38</v>
       </c>
       <c r="N1" s="9" t="s">
         <v>25</v>
@@ -1267,13 +1302,13 @@
         <v>26</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q1" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>50</v>
       </c>
@@ -1330,64 +1365,64 @@
         <v>0.86004341960307296</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
+    <row r="3" spans="1:17">
+      <c r="A3" s="16">
         <v>50</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="16">
         <v>4</v>
       </c>
-      <c r="C3" s="23">
-        <v>5</v>
-      </c>
-      <c r="D3" s="23">
-        <v>10</v>
-      </c>
-      <c r="E3" s="23">
+      <c r="C3" s="16">
+        <v>5</v>
+      </c>
+      <c r="D3" s="16">
+        <v>10</v>
+      </c>
+      <c r="E3" s="16">
         <v>0.01</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="16">
         <v>1078225.2</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="16">
         <v>-0.359892606545474</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="16">
         <v>1.0235823552994101</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="16">
         <v>10.7822525</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="16">
         <v>235953.27</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="16">
         <v>-0.140312082930313</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="16">
         <v>1.8335316754700499</v>
       </c>
-      <c r="M3" s="23">
+      <c r="M3" s="16">
         <v>2.3595326562499999</v>
       </c>
-      <c r="N3" s="23">
+      <c r="N3" s="16">
         <f t="shared" si="0"/>
         <v>0.86647015115934878</v>
       </c>
-      <c r="O3" s="23">
+      <c r="O3" s="16">
         <f t="shared" si="1"/>
         <v>0.92126373393964556</v>
       </c>
-      <c r="P3" s="23">
+      <c r="P3" s="16">
         <f t="shared" si="2"/>
         <v>0.68130856786659288</v>
       </c>
-      <c r="Q3" s="23">
+      <c r="Q3" s="16">
         <f t="shared" si="3"/>
         <v>0.82301415098852904</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>50</v>
       </c>
@@ -1444,7 +1479,7 @@
         <v>0.81916591664266836</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>50</v>
       </c>
@@ -1501,7 +1536,7 @@
         <v>0.81536673541934546</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>100</v>
       </c>
@@ -1558,7 +1593,7 @@
         <v>0.78474813959098533</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>50</v>
       </c>
@@ -1615,7 +1650,7 @@
         <v>0.772666806543025</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>150</v>
       </c>
@@ -1672,7 +1707,7 @@
         <v>0.76210647531125331</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>150</v>
       </c>
@@ -1729,7 +1764,7 @@
         <v>0.75163165868835524</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>150</v>
       </c>
@@ -1786,7 +1821,7 @@
         <v>0.74370797428533753</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>100</v>
       </c>
@@ -1843,7 +1878,7 @@
         <v>0.71793298708495534</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12">
         <v>150</v>
       </c>
@@ -1900,7 +1935,7 @@
         <v>0.69183923453088925</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13">
         <v>150</v>
       </c>
@@ -1957,7 +1992,7 @@
         <v>0.67853747971172773</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14">
         <v>50</v>
       </c>
@@ -2014,7 +2049,7 @@
         <v>0.674600634647613</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15">
         <v>150</v>
       </c>
@@ -2071,7 +2106,7 @@
         <v>0.66732129901816695</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16">
         <v>100</v>
       </c>
@@ -2128,7 +2163,7 @@
         <v>0.66647251092885973</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17">
         <v>150</v>
       </c>
@@ -2185,7 +2220,7 @@
         <v>0.66615897751590492</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18">
         <v>150</v>
       </c>
@@ -2242,7 +2277,7 @@
         <v>0.6628091964408851</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19">
         <v>100</v>
       </c>
@@ -2299,7 +2334,7 @@
         <v>0.65872032964546856</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="A20">
         <v>150</v>
       </c>
@@ -2356,7 +2391,7 @@
         <v>0.65313067880333175</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="A21">
         <v>100</v>
       </c>
@@ -2413,7 +2448,7 @@
         <v>0.64234829314669939</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="A22">
         <v>150</v>
       </c>
@@ -2470,7 +2505,7 @@
         <v>0.6415121874516867</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17">
       <c r="A23">
         <v>150</v>
       </c>
@@ -2527,7 +2562,7 @@
         <v>0.63808780673743526</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="A24">
         <v>50</v>
       </c>
@@ -2584,7 +2619,7 @@
         <v>0.63429051007199311</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="A25">
         <v>150</v>
       </c>
@@ -2641,7 +2676,7 @@
         <v>0.60933768879315942</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="A26">
         <v>50</v>
       </c>
@@ -2698,7 +2733,7 @@
         <v>0.60665925198678472</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17">
       <c r="A27">
         <v>100</v>
       </c>
@@ -2755,7 +2790,7 @@
         <v>0.60361271624817447</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="A28">
         <v>150</v>
       </c>
@@ -2812,7 +2847,7 @@
         <v>0.60208290110732143</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17">
       <c r="A29">
         <v>100</v>
       </c>
@@ -2869,7 +2904,7 @@
         <v>0.59820830813319958</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17">
       <c r="A30">
         <v>100</v>
       </c>
@@ -2926,7 +2961,7 @@
         <v>0.59442352715778257</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17">
       <c r="A31">
         <v>100</v>
       </c>
@@ -2983,7 +3018,7 @@
         <v>0.59155368664756169</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17">
       <c r="A32">
         <v>50</v>
       </c>
@@ -3040,7 +3075,7 @@
         <v>0.58392142303405103</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17">
       <c r="A33">
         <v>100</v>
       </c>
@@ -3097,7 +3132,7 @@
         <v>0.58292474209008827</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17">
       <c r="A34">
         <v>50</v>
       </c>
@@ -3154,7 +3189,7 @@
         <v>0.57865412833372076</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17">
       <c r="A35">
         <v>100</v>
       </c>
@@ -3211,7 +3246,7 @@
         <v>0.56819030991801878</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17">
       <c r="A36">
         <v>50</v>
       </c>
@@ -3268,7 +3303,7 @@
         <v>0.560179780059613</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17">
       <c r="A37">
         <v>50</v>
       </c>
@@ -3325,7 +3360,7 @@
         <v>0.55852605654803522</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17">
       <c r="A38">
         <v>150</v>
       </c>
@@ -3382,7 +3417,7 @@
         <v>0.55760298386447626</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17">
       <c r="A39">
         <v>100</v>
       </c>
@@ -3439,7 +3474,7 @@
         <v>0.55468829537862741</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17">
       <c r="A40">
         <v>50</v>
       </c>
@@ -3496,7 +3531,7 @@
         <v>0.54674629595452184</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17">
       <c r="A41">
         <v>50</v>
       </c>
@@ -3553,7 +3588,7 @@
         <v>0.51234629095408135</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17">
       <c r="A42">
         <v>50</v>
       </c>
@@ -3610,7 +3645,7 @@
         <v>0.51025779959292616</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17">
       <c r="A43">
         <v>50</v>
       </c>
@@ -3667,7 +3702,7 @@
         <v>0.50402481670283583</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17">
       <c r="A44">
         <v>50</v>
       </c>
@@ -3724,7 +3759,7 @@
         <v>0.49772140112596458</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17">
       <c r="A45">
         <v>50</v>
       </c>
@@ -3781,7 +3816,7 @@
         <v>0.48798590304340933</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17">
       <c r="A46">
         <v>150</v>
       </c>
@@ -3838,7 +3873,7 @@
         <v>0.48694997064790346</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17">
       <c r="A47">
         <v>50</v>
       </c>
@@ -3895,7 +3930,7 @@
         <v>0.47496573422465493</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17">
       <c r="A48">
         <v>50</v>
       </c>
@@ -3952,7 +3987,7 @@
         <v>0.47465553268010457</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17">
       <c r="A49">
         <v>50</v>
       </c>
@@ -4009,7 +4044,7 @@
         <v>0.47338070759502776</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17">
       <c r="A50">
         <v>50</v>
       </c>
@@ -4066,7 +4101,7 @@
         <v>0.4732753182395168</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4123,7 +4158,7 @@
         <v>0.47312789027317331</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17">
       <c r="A52">
         <v>50</v>
       </c>
@@ -4180,7 +4215,7 @@
         <v>0.47242715652985612</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17">
       <c r="A53">
         <v>50</v>
       </c>
@@ -4237,7 +4272,7 @@
         <v>0.47151733647708644</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17">
       <c r="A54">
         <v>50</v>
       </c>
@@ -4294,7 +4329,7 @@
         <v>0.4663750603263595</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17">
       <c r="A55">
         <v>100</v>
       </c>
@@ -4351,7 +4386,7 @@
         <v>0.46416283858620327</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17">
       <c r="A56">
         <v>150</v>
       </c>
@@ -4408,7 +4443,7 @@
         <v>0.46227834039117255</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17">
       <c r="A57">
         <v>50</v>
       </c>
@@ -4465,7 +4500,7 @@
         <v>0.45948270614573899</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17">
       <c r="A58">
         <v>50</v>
       </c>
@@ -4522,7 +4557,7 @@
         <v>0.45899709458085108</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17">
       <c r="A59">
         <v>50</v>
       </c>
@@ -4579,7 +4614,7 @@
         <v>0.45846468417743064</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17">
       <c r="A60">
         <v>100</v>
       </c>
@@ -4636,7 +4671,7 @@
         <v>0.45565100907581568</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17">
       <c r="A61">
         <v>150</v>
       </c>
@@ -4693,7 +4728,7 @@
         <v>0.45310962039810282</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17">
       <c r="A62">
         <v>50</v>
       </c>
@@ -4750,7 +4785,7 @@
         <v>0.45214622283802514</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17">
       <c r="A63">
         <v>150</v>
       </c>
@@ -4807,7 +4842,7 @@
         <v>0.4495831431659707</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17">
       <c r="A64">
         <v>100</v>
       </c>
@@ -4864,7 +4899,7 @@
         <v>0.44584375065538789</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17">
       <c r="A65">
         <v>100</v>
       </c>
@@ -4921,7 +4956,7 @@
         <v>0.44548725187927385</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17">
       <c r="A66">
         <v>100</v>
       </c>
@@ -4978,7 +5013,7 @@
         <v>0.44515269373954558</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17">
       <c r="A67">
         <v>100</v>
       </c>
@@ -5035,7 +5070,7 @@
         <v>0.44499998349269126</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17">
       <c r="A68">
         <v>100</v>
       </c>
@@ -5092,7 +5127,7 @@
         <v>0.44487221484056244</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17">
       <c r="A69">
         <v>100</v>
       </c>
@@ -5149,7 +5184,7 @@
         <v>0.44368087071602064</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17">
       <c r="A70">
         <v>100</v>
       </c>
@@ -5206,7 +5241,7 @@
         <v>0.44349773328583891</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17">
       <c r="A71">
         <v>100</v>
       </c>
@@ -5263,7 +5298,7 @@
         <v>0.4426256001360207</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17">
       <c r="A72">
         <v>100</v>
       </c>
@@ -5320,7 +5355,7 @@
         <v>0.44262091677695831</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17">
       <c r="A73">
         <v>100</v>
       </c>
@@ -5377,7 +5412,7 @@
         <v>0.44260993379950558</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17">
       <c r="A74">
         <v>50</v>
       </c>
@@ -5434,7 +5469,7 @@
         <v>0.44188933391930257</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17">
       <c r="A75">
         <v>100</v>
       </c>
@@ -5491,7 +5526,7 @@
         <v>0.44106237060724257</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17">
       <c r="A76">
         <v>150</v>
       </c>
@@ -5548,7 +5583,7 @@
         <v>0.43962801231722165</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17">
       <c r="A77">
         <v>50</v>
       </c>
@@ -5605,7 +5640,7 @@
         <v>0.43510104546884604</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17">
       <c r="A78">
         <v>50</v>
       </c>
@@ -5662,7 +5697,7 @@
         <v>0.4207335318569278</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17">
       <c r="A79">
         <v>100</v>
       </c>
@@ -5719,7 +5754,7 @@
         <v>0.41214672532782909</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17">
       <c r="A80">
         <v>150</v>
       </c>
@@ -5776,7 +5811,7 @@
         <v>0.40803841517202172</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17">
       <c r="A81">
         <v>150</v>
       </c>
@@ -5833,7 +5868,7 @@
         <v>0.40767482872526251</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17">
       <c r="A82">
         <v>150</v>
       </c>
@@ -5890,7 +5925,7 @@
         <v>0.40677155048797564</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17">
       <c r="A83">
         <v>150</v>
       </c>
@@ -5947,7 +5982,7 @@
         <v>0.40666387037222557</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17">
       <c r="A84">
         <v>150</v>
       </c>
@@ -6004,7 +6039,7 @@
         <v>0.40658083398708067</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17">
       <c r="A85">
         <v>150</v>
       </c>
@@ -6061,7 +6096,7 @@
         <v>0.40633046199462025</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17">
       <c r="A86">
         <v>150</v>
       </c>
@@ -6118,7 +6153,7 @@
         <v>0.40623311932099143</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17">
       <c r="A87">
         <v>100</v>
       </c>
@@ -6175,7 +6210,7 @@
         <v>0.39071296562297869</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17">
       <c r="A88">
         <v>100</v>
       </c>
@@ -6232,7 +6267,7 @@
         <v>0.37024432398283968</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17">
       <c r="A89">
         <v>50</v>
       </c>
@@ -6289,7 +6324,7 @@
         <v>0.35399993420899784</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17">
       <c r="A90">
         <v>50</v>
       </c>
@@ -6346,7 +6381,7 @@
         <v>0.35330638081721183</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17">
       <c r="A91">
         <v>50</v>
       </c>
@@ -6403,7 +6438,7 @@
         <v>0.3511556938420794</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17">
       <c r="A92">
         <v>50</v>
       </c>
@@ -6460,7 +6495,7 @@
         <v>0.34810793963165926</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17">
       <c r="A93">
         <v>100</v>
       </c>
@@ -6517,7 +6552,7 @@
         <v>0.34251712773965876</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17">
       <c r="A94">
         <v>100</v>
       </c>
@@ -6574,7 +6609,7 @@
         <v>0.3348815351629752</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17">
       <c r="A95">
         <v>100</v>
       </c>
@@ -6631,7 +6666,7 @@
         <v>0.33470176059636336</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17">
       <c r="A96">
         <v>100</v>
       </c>
@@ -6688,7 +6723,7 @@
         <v>0.33033792639626186</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17">
       <c r="A97">
         <v>50</v>
       </c>
@@ -6745,7 +6780,7 @@
         <v>0.32899459663449682</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17">
       <c r="A98">
         <v>100</v>
       </c>
@@ -6802,7 +6837,7 @@
         <v>0.31614908496235322</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17">
       <c r="A99">
         <v>100</v>
       </c>
@@ -6859,7 +6894,7 @@
         <v>0.31356227485672622</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17">
       <c r="A100">
         <v>100</v>
       </c>
@@ -6916,7 +6951,7 @@
         <v>0.29723547064907119</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6973,7 +7008,7 @@
         <v>0.29094364043689352</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17">
       <c r="A102">
         <v>100</v>
       </c>
@@ -7030,7 +7065,7 @@
         <v>0.28835865920438103</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17">
       <c r="A103">
         <v>100</v>
       </c>
@@ -7087,7 +7122,7 @@
         <v>0.28822114601273396</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17">
       <c r="A104">
         <v>50</v>
       </c>
@@ -7144,7 +7179,7 @@
         <v>0.28288222898895593</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17">
       <c r="A105">
         <v>50</v>
       </c>
@@ -7201,7 +7236,7 @@
         <v>0.27604296206728413</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17">
       <c r="A106">
         <v>50</v>
       </c>
@@ -7258,7 +7293,7 @@
         <v>0.27362991223856908</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17">
       <c r="A107">
         <v>100</v>
       </c>
@@ -7315,7 +7350,7 @@
         <v>0.27352458061963064</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17">
       <c r="A108">
         <v>50</v>
       </c>
@@ -7372,7 +7407,7 @@
         <v>0.27106594773066406</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17">
       <c r="A109">
         <v>150</v>
       </c>
@@ -7429,7 +7464,7 @@
         <v>0.2600250140699743</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17">
       <c r="A110">
         <v>50</v>
       </c>
@@ -7486,7 +7521,7 @@
         <v>0.25952053846238826</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17">
       <c r="A111">
         <v>150</v>
       </c>
@@ -7543,7 +7578,7 @@
         <v>0.25368492615866839</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17">
       <c r="A112">
         <v>100</v>
       </c>
@@ -7600,7 +7635,7 @@
         <v>0.25217383848183328</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17">
       <c r="A113">
         <v>100</v>
       </c>
@@ -7657,7 +7692,7 @@
         <v>0.24876275789865887</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17">
       <c r="A114">
         <v>150</v>
       </c>
@@ -7714,7 +7749,7 @@
         <v>0.24547310115967544</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17">
       <c r="A115">
         <v>50</v>
       </c>
@@ -7771,7 +7806,7 @@
         <v>0.2454337974490369</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17">
       <c r="A116">
         <v>50</v>
       </c>
@@ -7828,7 +7863,7 @@
         <v>0.24404391411990467</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17">
       <c r="A117">
         <v>150</v>
       </c>
@@ -7885,7 +7920,7 @@
         <v>0.24403601727280264</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17">
       <c r="A118">
         <v>100</v>
       </c>
@@ -7942,7 +7977,7 @@
         <v>0.23627707788722593</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17">
       <c r="A119">
         <v>150</v>
       </c>
@@ -7999,7 +8034,7 @@
         <v>0.23083107506134048</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17">
       <c r="A120">
         <v>150</v>
       </c>
@@ -8056,7 +8091,7 @@
         <v>0.22688177941943907</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17">
       <c r="A121">
         <v>150</v>
       </c>
@@ -8113,7 +8148,7 @@
         <v>0.22044134462135778</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17">
       <c r="A122">
         <v>150</v>
       </c>
@@ -8170,7 +8205,7 @@
         <v>0.2176602181742926</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17">
       <c r="A123">
         <v>50</v>
       </c>
@@ -8227,7 +8262,7 @@
         <v>0.21703631594163297</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17">
       <c r="A124">
         <v>100</v>
       </c>
@@ -8284,7 +8319,7 @@
         <v>0.21049009522063442</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17">
       <c r="A125">
         <v>150</v>
       </c>
@@ -8341,7 +8376,7 @@
         <v>0.20792058904304112</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17">
       <c r="A126">
         <v>100</v>
       </c>
@@ -8398,7 +8433,7 @@
         <v>0.20612829547315523</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17">
       <c r="A127">
         <v>50</v>
       </c>
@@ -8455,7 +8490,7 @@
         <v>0.19880213749455378</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17">
       <c r="A128">
         <v>50</v>
       </c>
@@ -8512,7 +8547,7 @@
         <v>0.19880165288500939</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17">
       <c r="A129">
         <v>50</v>
       </c>
@@ -8569,7 +8604,7 @@
         <v>0.19879793060864379</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17">
       <c r="A130">
         <v>150</v>
       </c>
@@ -8626,7 +8661,7 @@
         <v>0.1979010297549294</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17">
       <c r="A131">
         <v>150</v>
       </c>
@@ -8683,7 +8718,7 @@
         <v>0.19284219384978055</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17">
       <c r="A132">
         <v>150</v>
       </c>
@@ -8740,7 +8775,7 @@
         <v>0.17853819830267872</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17">
       <c r="A133">
         <v>100</v>
       </c>
@@ -8797,7 +8832,7 @@
         <v>0.1770592276133944</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17">
       <c r="A134">
         <v>100</v>
       </c>
@@ -8854,7 +8889,7 @@
         <v>0.17484753200728209</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17">
       <c r="A135">
         <v>100</v>
       </c>
@@ -8911,7 +8946,7 @@
         <v>0.17388029201740071</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17">
       <c r="A136">
         <v>100</v>
       </c>
@@ -8968,7 +9003,7 @@
         <v>0.17386531545409853</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17">
       <c r="A137">
         <v>100</v>
       </c>
@@ -9025,7 +9060,7 @@
         <v>0.17379793378061292</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17">
       <c r="A138">
         <v>100</v>
       </c>
@@ -9082,7 +9117,7 @@
         <v>0.17324840619223614</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17">
       <c r="A139">
         <v>100</v>
       </c>
@@ -9139,7 +9174,7 @@
         <v>0.17320834788726605</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17">
       <c r="A140">
         <v>150</v>
       </c>
@@ -9196,7 +9231,7 @@
         <v>0.17257236341860596</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17">
       <c r="A141">
         <v>100</v>
       </c>
@@ -9253,7 +9288,7 @@
         <v>0.17233125935901336</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17">
       <c r="A142">
         <v>150</v>
       </c>
@@ -9310,7 +9345,7 @@
         <v>0.16668118740549109</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17">
       <c r="A143">
         <v>100</v>
       </c>
@@ -9367,7 +9402,7 @@
         <v>0.15963888425687969</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17">
       <c r="A144">
         <v>50</v>
       </c>
@@ -9424,7 +9459,7 @@
         <v>0.1511338628718352</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:17">
       <c r="A145">
         <v>150</v>
       </c>
@@ -9481,7 +9516,7 @@
         <v>0.15018699232533439</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17">
       <c r="A146">
         <v>100</v>
       </c>
@@ -9538,7 +9573,7 @@
         <v>0.1474863119547267</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:17">
       <c r="A147">
         <v>150</v>
       </c>
@@ -9595,7 +9630,7 @@
         <v>0.14147222944566659</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:17">
       <c r="A148">
         <v>150</v>
       </c>
@@ -9652,7 +9687,7 @@
         <v>0.1394176672173775</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:17">
       <c r="A149">
         <v>150</v>
       </c>
@@ -9709,7 +9744,7 @@
         <v>0.13167812243297966</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:17">
       <c r="A150">
         <v>150</v>
       </c>
@@ -9766,7 +9801,7 @@
         <v>0.11816678459633427</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:17">
       <c r="A151">
         <v>150</v>
       </c>
@@ -9816,7 +9851,7 @@
         <v>0.11780553493877073</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:17">
       <c r="A152">
         <v>150</v>
       </c>
@@ -9866,7 +9901,7 @@
         <v>0.11780553493877073</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17">
       <c r="A153">
         <v>150</v>
       </c>
@@ -9916,7 +9951,7 @@
         <v>0.11780553493877073</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:17">
       <c r="A154">
         <v>50</v>
       </c>
@@ -9969,7 +10004,7 @@
         <v>0.11780553493877073</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:17">
       <c r="A155">
         <v>50</v>
       </c>
@@ -10022,7 +10057,7 @@
         <v>0.11780553493877073</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17">
       <c r="A156">
         <v>150</v>
       </c>
@@ -10079,7 +10114,7 @@
         <v>0.11136354064518124</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17">
       <c r="A157">
         <v>150</v>
       </c>
@@ -10136,7 +10171,7 @@
         <v>0.11097771928776627</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17">
       <c r="A158">
         <v>150</v>
       </c>
@@ -10193,7 +10228,7 @@
         <v>0.11000629771434377</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:17">
       <c r="A159">
         <v>150</v>
       </c>
@@ -10250,7 +10285,7 @@
         <v>9.1294012504328656E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:17">
       <c r="A160">
         <v>50</v>
       </c>
@@ -10307,7 +10342,7 @@
         <v>7.8382836176991155E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:17">
       <c r="A161">
         <v>150</v>
       </c>
@@ -10364,7 +10399,7 @@
         <v>6.9378516602989951E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:17">
       <c r="A162">
         <v>50</v>
       </c>
@@ -10405,7 +10440,7 @@
         <v>0.81975468750000002</v>
       </c>
       <c r="N162">
-        <f t="shared" ref="N162:N193" si="21">(M162-MIN($M$2:$M$163))/((MAX($M$2:$M$163)-MIN($M$2:$M$163)))</f>
+        <f t="shared" ref="N162:N163" si="21">(M162-MIN($M$2:$M$163))/((MAX($M$2:$M$163)-MIN($M$2:$M$163)))</f>
         <v>3.2122038974823047E-2</v>
       </c>
       <c r="O162">
@@ -10417,11 +10452,11 @@
         <v>1.842237057204037E-2</v>
       </c>
       <c r="Q162">
-        <f t="shared" ref="Q162:Q193" si="22">(N162+O162+P162)/3</f>
+        <f t="shared" ref="Q162:Q163" si="22">(N162+O162+P162)/3</f>
         <v>6.5181977987680287E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:17">
       <c r="A163">
         <v>150</v>
       </c>

--- a/Model Pipeline/hyperparameter_tuning/best_model/Evaluation 191024.xlsx
+++ b/Model Pipeline/hyperparameter_tuning/best_model/Evaluation 191024.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\limyi\Documents\GitHub\DSE4212\Model Pipeline\hyperparameter_tuning\best_model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\limyi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465902D1-044D-4865-BBF0-08587E5FE850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D807F83-B18B-4350-B450-6E953024C27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E70AA270-E9C1-4844-BB73-78EA2F9D687C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>TIME_WINDOW</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Covariates selected by Lasso on AAPL close</t>
   </si>
   <si>
-    <t>final_portfolio_value</t>
-  </si>
-  <si>
     <t>Best Hyperparameters with Covariates selected by Lasso on AAPL close</t>
   </si>
   <si>
@@ -85,9 +82,6 @@
   </si>
   <si>
     <t>Full set</t>
-  </si>
-  <si>
-    <t>close, high_spy, close_spy, fear greed, ratingscore, pound_dollar_exchange_rate, unemployment, EBITDA margin, PB ratio, PE ratio, ROE</t>
   </si>
   <si>
     <t>Final Model</t>
@@ -161,6 +155,9 @@
   </si>
   <si>
     <t>[0.01,0.02]</t>
+  </si>
+  <si>
+    <t>close, vmd_mode_0, vmd_mode_1, vmd_mode_2, High_VIX, Low_VIX, High_SPY, Low_SPY, Fear Greed, ratingScore, RatingDetailsROEScore, exports, pound_dollar_exchange_rate, unemployment, ics, TTM Revenue (Billion), PB ratio, PS ratio, ROE</t>
   </si>
 </sst>
 </file>
@@ -390,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -411,9 +408,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -424,17 +418,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -453,6 +441,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -460,6 +451,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -796,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE6063C-627E-403F-B502-7B050E1841AF}">
-  <dimension ref="B2:H39"/>
+  <dimension ref="B2:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -807,8 +801,8 @@
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="25.42578125" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="52.7109375" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" customWidth="1"/>
+    <col min="5" max="5" width="39.85546875" customWidth="1"/>
+    <col min="6" max="6" width="36.42578125" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="12" bestFit="1" customWidth="1"/>
@@ -825,47 +819,47 @@
   <sheetData>
     <row r="2" spans="2:8" ht="21">
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="12" customHeight="1" thickBot="1">
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="2:8" ht="45.75" thickBot="1">
-      <c r="B4" s="22" t="s">
+    <row r="4" spans="2:8" ht="54" customHeight="1" thickBot="1">
+      <c r="B4" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="105">
+      <c r="B5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="75">
-      <c r="B5" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>16</v>
+      <c r="E5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="19"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="1">
         <v>10</v>
       </c>
@@ -876,14 +870,14 @@
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="19"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="1">
         <v>50</v>
       </c>
@@ -894,14 +888,14 @@
         <v>50</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="19"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="1">
         <v>4</v>
       </c>
@@ -912,14 +906,14 @@
         <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="19"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="1">
         <v>5</v>
       </c>
@@ -930,14 +924,14 @@
         <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="19"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="1">
         <v>20</v>
       </c>
@@ -948,116 +942,116 @@
         <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="19"/>
+      <c r="B11" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="16"/>
       <c r="D11" s="1">
         <v>0.01</v>
       </c>
       <c r="E11" s="1">
         <v>0.01</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="21">
         <v>0.01</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="30" customHeight="1">
-      <c r="B12" s="24" t="s">
-        <v>18</v>
+      <c r="B12" s="22" t="s">
+        <v>16</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="12">
         <v>-0.38513478101836501</v>
       </c>
       <c r="E12" s="2">
-        <v>-0.43661943903449502</v>
+        <v>-0.38515899999999997</v>
       </c>
       <c r="F12" s="7">
         <v>-0.359892606545474</v>
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="25"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="12">
         <v>1.29194448307328</v>
       </c>
       <c r="E13" s="2">
-        <v>0.90674316448995895</v>
+        <v>1.2834399999999999</v>
       </c>
       <c r="F13" s="7">
         <v>1.0235823552994101</v>
       </c>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="26"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="12">
         <v>9.3823675000000009</v>
       </c>
       <c r="E14" s="2">
-        <v>7.8754131249999997</v>
+        <v>8.761139</v>
       </c>
       <c r="F14" s="7">
         <v>10.7822525</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
-      <c r="B15" s="24" t="s">
-        <v>32</v>
+    <row r="15" spans="2:8" ht="45" customHeight="1">
+      <c r="B15" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="2">
         <v>-0.17713575385536001</v>
       </c>
       <c r="E15" s="2">
-        <v>-0.11005857555294001</v>
+        <v>-0.22781000000000001</v>
       </c>
       <c r="F15" s="7">
         <v>-0.140312082930313</v>
       </c>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="25"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="12">
         <v>1.1575589742311001</v>
       </c>
       <c r="E16" s="2">
-        <v>1.4617713185882399</v>
+        <v>1.0462830000000001</v>
       </c>
       <c r="F16" s="7">
         <v>1.8335316754700499</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="26"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="12">
         <v>1.1843999999999999</v>
       </c>
       <c r="E17" s="2">
-        <v>1.25</v>
+        <v>1.6241030000000001</v>
       </c>
       <c r="F17" s="7">
         <v>2.3595326562499999</v>
@@ -1065,147 +1059,129 @@
     </row>
     <row r="23" spans="2:6" ht="21">
       <c r="B23" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="15.75" thickBot="1"/>
-    <row r="25" spans="2:6" ht="45">
-      <c r="B25" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="21"/>
+    <row r="25" spans="2:6" ht="45.75" thickBot="1">
+      <c r="B25" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="18"/>
       <c r="D25" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="90.75" customHeight="1">
-      <c r="B26" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="184.5" customHeight="1">
+      <c r="B26" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="19"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="19"/>
+      <c r="C28" s="16"/>
       <c r="D28" s="6">
         <v>50</v>
       </c>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="19"/>
+      <c r="C29" s="16"/>
       <c r="D29" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="19"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="19"/>
+      <c r="C31" s="16"/>
       <c r="D31" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="30" customHeight="1">
+      <c r="B32" s="22" t="s">
+        <v>17</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D32" s="7">
-        <v>1643233.6</v>
+        <v>-0.38511536015811498</v>
       </c>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="18"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="24"/>
+      <c r="C34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="7">
+        <v>18.53</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="30" customHeight="1">
+      <c r="B35" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="7">
-        <v>-0.38511536015811498</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="18"/>
-      <c r="C34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="7">
-        <v>1.2261634240827699</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="18"/>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="7">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="23"/>
+      <c r="C36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="24"/>
+      <c r="C37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="7">
-        <v>16.432336249999999</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="7">
-        <v>150954.56</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="18"/>
-      <c r="C37" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D37" s="7">
-        <v>-0.227745188074087</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="18"/>
-      <c r="C38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1.41952148536356</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="18"/>
-      <c r="C39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="7">
-        <v>1.5095456249999999</v>
+        <v>1.71</v>
       </c>
     </row>
   </sheetData>
@@ -1220,15 +1196,15 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B36:B39"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1239,8 +1215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41419A1-C8E4-448B-84F6-E20DE8CC9A64}">
   <dimension ref="A1:Q163"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="F3:M3"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1255,7 +1231,7 @@
     <col min="16" max="16" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="9" customFormat="1">
+    <row r="1" spans="1:17" s="8" customFormat="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1269,43 +1245,43 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="P1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="M1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="9" t="s">
+      <c r="Q1" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1366,58 +1342,58 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="16">
+      <c r="A3" s="14">
         <v>50</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="14">
         <v>4</v>
       </c>
-      <c r="C3" s="16">
-        <v>5</v>
-      </c>
-      <c r="D3" s="16">
-        <v>10</v>
-      </c>
-      <c r="E3" s="16">
+      <c r="C3" s="14">
+        <v>5</v>
+      </c>
+      <c r="D3" s="14">
+        <v>10</v>
+      </c>
+      <c r="E3" s="14">
         <v>0.01</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="14">
         <v>1078225.2</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="14">
         <v>-0.359892606545474</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="14">
         <v>1.0235823552994101</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="14">
         <v>10.7822525</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="14">
         <v>235953.27</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="14">
         <v>-0.140312082930313</v>
       </c>
-      <c r="L3" s="16">
+      <c r="L3" s="14">
         <v>1.8335316754700499</v>
       </c>
-      <c r="M3" s="16">
+      <c r="M3" s="14">
         <v>2.3595326562499999</v>
       </c>
-      <c r="N3" s="16">
+      <c r="N3" s="14">
         <f t="shared" si="0"/>
         <v>0.86647015115934878</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="14">
         <f t="shared" si="1"/>
         <v>0.92126373393964556</v>
       </c>
-      <c r="P3" s="16">
+      <c r="P3" s="14">
         <f t="shared" si="2"/>
         <v>0.68130856786659288</v>
       </c>
-      <c r="Q3" s="16">
+      <c r="Q3" s="14">
         <f t="shared" si="3"/>
         <v>0.82301415098852904</v>
       </c>
@@ -9970,7 +9946,7 @@
       <c r="F154">
         <v>99999.766000000003</v>
       </c>
-      <c r="G154" s="15">
+      <c r="G154" s="13">
         <v>-6.5624759034087897E-6</v>
       </c>
       <c r="H154">
@@ -10023,7 +9999,7 @@
       <c r="F155">
         <v>99999.914000000004</v>
       </c>
-      <c r="G155" s="15">
+      <c r="G155" s="13">
         <v>-1.56249902343811E-6</v>
       </c>
       <c r="H155">
